--- a/Test Plan and Result - 100666519.xlsx
+++ b/Test Plan and Result - 100666519.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Holmesglen - Cert IV Information System - Programming\ICT449 - Use version control system in develpment environments\Assessment\To check\JSAT2\part5\AT2-Part5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47477951-B293-4C04-B584-3C8D034AB87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4C889F-FAC5-4CAC-BDFC-7988028717F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test1 (Chrome)" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="193">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -574,9 +574,6 @@
     <t>No movie added and alert "Rating is required." Displayed</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t>PASS</t>
   </si>
   <si>
@@ -592,9 +589,6 @@
     <t>Enter Title, Year and Rating (negative number) , click "Add Movie" button</t>
   </si>
   <si>
-    <t>Movie added in both cases</t>
-  </si>
-  <si>
     <t>No movie added and alert "Rating must be between 0.0 and 5.0." Displayed</t>
   </si>
   <si>
@@ -619,9 +613,6 @@
     <t>No movie has been updated and alert "Year must be between 1950 and 2025." Displayed</t>
   </si>
   <si>
-    <t>Movie updated</t>
-  </si>
-  <si>
     <t>Enter Index, Title, Year from the list, and Rating (negative number) , click " Update Movie" button</t>
   </si>
   <si>
@@ -647,6 +638,18 @@
   </si>
   <si>
     <t>The movie at position 6 has been removed successfully, list updated with only five movies remaining, no errors shown</t>
+  </si>
+  <si>
+    <t>No movie added and alert "Year must be a number!" Displayed</t>
+  </si>
+  <si>
+    <t>No movie added and alert "Rating must be a number!" Displayed</t>
+  </si>
+  <si>
+    <t>No movie has been updated and alert "Year must be a number!" Displayed</t>
+  </si>
+  <si>
+    <t>No movie has been updated and alert "Rating must be a number!" Displayed</t>
   </si>
 </sst>
 </file>
@@ -992,7 +995,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1029,56 +1032,38 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1093,6 +1078,24 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1160,6 +1163,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1175,14 +1187,8 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1193,12 +1199,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1210,24 +1210,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1529,25 +1511,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="22"/>
       <c r="C1" s="8">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="17" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2"/>
@@ -1563,157 +1545,157 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="15.6" customHeight="1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="34">
+      <c r="E3" s="26"/>
+      <c r="F3" s="28">
         <v>45803</v>
       </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="31" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="25" t="s">
+      <c r="I3" s="26"/>
+      <c r="J3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="26"/>
+      <c r="K3" s="15"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="22" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="27" t="s">
+      <c r="E5" s="34"/>
+      <c r="F5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="27" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="28"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
     </row>
     <row r="7" spans="1:11" ht="33" customHeight="1">
       <c r="A7" s="10">
         <v>1</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="17" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="14" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="21"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="36" customHeight="1">
       <c r="A8" s="10">
         <v>2</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="17" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="14" t="s">
+      <c r="E8" s="23"/>
+      <c r="F8" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="21"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="31.8" customHeight="1">
       <c r="A9" s="10">
         <v>3</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="17" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="14" t="s">
+      <c r="E9" s="23"/>
+      <c r="F9" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="21"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="49.2" customHeight="1">
       <c r="A10" s="10">
         <v>4</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="17" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="14" t="s">
+      <c r="E10" s="23"/>
+      <c r="F10" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="21"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="20" spans="1:1" ht="23.1" customHeight="1"/>
     <row r="21" spans="1:1" ht="68.099999999999994" hidden="1" customHeight="1"/>
@@ -1735,6 +1717,19 @@
     <row r="49" ht="36" customHeight="1"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="I5:K6"/>
     <mergeCell ref="I8:K8"/>
@@ -1751,19 +1746,6 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="F5:H6"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1778,7 +1760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F0D9C5-AE44-46CD-AFB6-A813B93810C9}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -1802,14 +1784,14 @@
         <v>0</v>
       </c>
       <c r="E1" s="49"/>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="32"/>
     </row>
     <row r="2" spans="1:11" ht="16.05" customHeight="1">
       <c r="A2" s="13"/>
@@ -1817,14 +1799,14 @@
       <c r="C2" s="12"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="66"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="61"/>
     </row>
     <row r="3" spans="1:11" ht="16.05" customHeight="1">
       <c r="A3" s="13"/>
@@ -1832,14 +1814,14 @@
       <c r="C3" s="12"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="74"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="73"/>
     </row>
     <row r="4" spans="1:11" ht="16.05" customHeight="1">
       <c r="A4" s="13"/>
@@ -1847,14 +1829,14 @@
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="66"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="61"/>
     </row>
     <row r="5" spans="1:11" ht="16.05" customHeight="1">
       <c r="A5" s="13"/>
@@ -1862,12 +1844,12 @@
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="66"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="61"/>
     </row>
     <row r="6" spans="1:11" ht="16.05" customHeight="1">
       <c r="A6" s="13"/>
@@ -1875,12 +1857,12 @@
       <c r="C6" s="12"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="66"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="61"/>
     </row>
     <row r="7" spans="1:11" ht="16.05" customHeight="1">
       <c r="A7" s="13"/>
@@ -1888,12 +1870,12 @@
       <c r="C7" s="12"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="66"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="61"/>
     </row>
     <row r="8" spans="1:11" ht="15.6">
       <c r="A8" s="5"/>
@@ -1928,10 +1910,10 @@
         <v>9</v>
       </c>
       <c r="I9" s="52"/>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="26"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="10" spans="1:11" ht="15.6">
       <c r="A10" s="4"/>
@@ -1950,315 +1932,259 @@
       <c r="A11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="61" t="s">
+      <c r="C11" s="63"/>
+      <c r="D11" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="62"/>
-      <c r="F11" s="59" t="s">
+      <c r="E11" s="65"/>
+      <c r="F11" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="63"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="59" t="s">
+      <c r="G11" s="66"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="63"/>
-      <c r="K11" s="60"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="63"/>
     </row>
     <row r="12" spans="1:11" ht="64.05" customHeight="1">
       <c r="A12" s="11">
         <v>1</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="17" t="s">
+      <c r="C12" s="24"/>
+      <c r="D12" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="21"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="G12" s="31"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:11" ht="66" customHeight="1">
       <c r="A13" s="10">
         <v>2</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="23" t="s">
         <v>109</v>
       </c>
       <c r="C13" s="58"/>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J13" s="20"/>
-      <c r="K13" s="21"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="G13" s="31"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="82.2" customHeight="1">
       <c r="A14" s="10">
         <v>3</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="23" t="s">
         <v>116</v>
       </c>
       <c r="C14" s="58"/>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="21"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14" s="31"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14" s="19"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="82.2" customHeight="1">
       <c r="A15" s="10">
         <v>4</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="23" t="s">
         <v>115</v>
       </c>
       <c r="C15" s="58"/>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J15" s="20"/>
-      <c r="K15" s="21"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="G15" s="31"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="119.4" customHeight="1">
       <c r="A16" s="10">
         <v>5</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="23" t="s">
         <v>117</v>
       </c>
       <c r="C16" s="58"/>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="J16" s="20"/>
-      <c r="K16" s="21"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="G16" s="31"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" spans="1:11" ht="82.8" customHeight="1">
       <c r="A17" s="10"/>
-      <c r="B17" s="17"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="58"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="16"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="32"/>
     </row>
     <row r="18" spans="1:11" ht="82.8" customHeight="1">
       <c r="A18" s="10"/>
-      <c r="B18" s="17"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="58"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="69"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="70"/>
     </row>
     <row r="19" spans="1:11" ht="96.6" customHeight="1">
       <c r="A19" s="10"/>
-      <c r="B19" s="17"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="58"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="32"/>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1">
       <c r="A20" s="10"/>
-      <c r="B20" s="17"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="58"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="32"/>
     </row>
     <row r="21" spans="1:11" ht="16.8" customHeight="1">
       <c r="A21" s="10"/>
-      <c r="B21" s="17"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="58"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="32"/>
     </row>
     <row r="22" spans="1:11" ht="19.2" customHeight="1">
       <c r="A22" s="10"/>
-      <c r="B22" s="17"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="58"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="16"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="32"/>
     </row>
     <row r="23" spans="1:11" ht="20.399999999999999" customHeight="1">
       <c r="A23" s="10"/>
-      <c r="B23" s="17"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="58"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="16"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="32"/>
     </row>
     <row r="24" spans="1:11" ht="19.2" customHeight="1">
       <c r="A24" s="10"/>
-      <c r="B24" s="17"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="58"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="16"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="32"/>
     </row>
     <row r="25" spans="1:11" ht="20.399999999999999" customHeight="1">
       <c r="A25" s="10"/>
-      <c r="B25" s="17"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="58"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="16"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F4:K7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="F2:K2"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="F25:H25"/>
@@ -2274,6 +2200,62 @@
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F4:K7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="F2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -2308,14 +2290,14 @@
         <v>0</v>
       </c>
       <c r="E1" s="49"/>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:11" ht="15.6">
       <c r="A2" s="5"/>
@@ -2408,112 +2390,96 @@
       <c r="A7" s="10">
         <v>1</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="17" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="14" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="21"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="48" customHeight="1">
       <c r="A8" s="10">
         <v>2</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="17" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="14" t="s">
+      <c r="E8" s="23"/>
+      <c r="F8" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="21"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="48" customHeight="1">
       <c r="A9" s="10">
         <v>3</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="17" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="14" t="s">
+      <c r="E9" s="23"/>
+      <c r="F9" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="21"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="41.4" customHeight="1">
       <c r="A10" s="10">
         <v>4</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="17" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="14" t="s">
+      <c r="E10" s="23"/>
+      <c r="F10" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="21"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:K7"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="D5:E6"/>
@@ -2527,6 +2493,22 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="I5:K6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -2546,25 +2528,25 @@
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:14" ht="15.6">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="22"/>
       <c r="C1" s="8">
         <v>3</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="17" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:14" ht="15.6">
       <c r="A2" s="2"/>
@@ -2580,29 +2562,29 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:14" ht="15.6" customHeight="1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="32"/>
+      <c r="E3" s="26"/>
       <c r="F3" s="54">
         <v>45803</v>
       </c>
       <c r="G3" s="55"/>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="25" t="s">
+      <c r="I3" s="26"/>
+      <c r="J3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="26"/>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" spans="1:14" ht="15.6">
       <c r="A4" s="1"/>
@@ -2618,141 +2600,152 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="22" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="27" t="s">
+      <c r="E5" s="34"/>
+      <c r="F5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="27" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:14" ht="22.8" customHeight="1">
-      <c r="A6" s="28"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
     </row>
     <row r="7" spans="1:14" ht="28.2" customHeight="1">
       <c r="A7" s="11">
         <v>1</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="17" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="14" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="21"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:14" ht="35.4" customHeight="1">
       <c r="A8" s="10">
         <v>2</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="58"/>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="14" t="s">
+      <c r="E8" s="23"/>
+      <c r="F8" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="21"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="20"/>
       <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:14" ht="64.8" customHeight="1">
       <c r="A9" s="10">
         <v>3</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="58"/>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="14" t="s">
+      <c r="E9" s="23"/>
+      <c r="F9" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="21"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:14" ht="63.6" customHeight="1">
       <c r="A10" s="10">
         <v>4</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="23" t="s">
         <v>136</v>
       </c>
       <c r="C10" s="58"/>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="14" t="s">
+      <c r="E10" s="23"/>
+      <c r="F10" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="21"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="F5:H6"/>
-    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:K1"/>
@@ -2761,22 +2754,11 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="I5:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -2810,29 +2792,29 @@
         <v>0</v>
       </c>
       <c r="E1" s="49"/>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:11" ht="16.05" customHeight="1">
-      <c r="A2" s="76"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="64" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="66"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="61"/>
     </row>
     <row r="3" spans="1:11" ht="15.6">
       <c r="A3" s="5"/>
@@ -2867,10 +2849,10 @@
         <v>9</v>
       </c>
       <c r="I4" s="52"/>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="26"/>
+      <c r="K4" s="15"/>
     </row>
     <row r="5" spans="1:11" ht="15.6">
       <c r="A5" s="4"/>
@@ -2889,142 +2871,167 @@
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61" t="s">
+      <c r="C6" s="63"/>
+      <c r="D6" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="59" t="s">
+      <c r="E6" s="65"/>
+      <c r="F6" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="59" t="s">
+      <c r="G6" s="66"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="63"/>
-      <c r="K6" s="60"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="63"/>
     </row>
     <row r="7" spans="1:11" ht="64.05" customHeight="1">
       <c r="A7" s="11">
         <v>1</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="17" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="14" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="21"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="48" customHeight="1">
       <c r="A8" s="10">
         <v>2</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="58"/>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="14" t="s">
+      <c r="E8" s="23"/>
+      <c r="F8" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="21"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="60.6" customHeight="1">
       <c r="A9" s="10">
         <v>3</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="58"/>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="14" t="s">
+      <c r="E9" s="23"/>
+      <c r="F9" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="21"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="67.2" customHeight="1">
       <c r="A10" s="10">
         <v>4</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="23" t="s">
         <v>136</v>
       </c>
       <c r="C10" s="58"/>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="14" t="s">
+      <c r="E10" s="23"/>
+      <c r="F10" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="21"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" ht="110.4" customHeight="1">
       <c r="A11" s="10">
         <v>5</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="23" t="s">
         <v>141</v>
       </c>
       <c r="C11" s="58"/>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="14" t="s">
+      <c r="E11" s="23"/>
+      <c r="F11" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="21"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" s="19"/>
+      <c r="K11" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:H11"/>
@@ -3033,31 +3040,6 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="I9:K9"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -3092,27 +3074,27 @@
         <v>0</v>
       </c>
       <c r="E1" s="49"/>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:11" ht="16.05" customHeight="1">
-      <c r="A2" s="76"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
     </row>
     <row r="3" spans="1:11" ht="15.6">
       <c r="A3" s="5"/>
@@ -3147,10 +3129,10 @@
         <v>9</v>
       </c>
       <c r="I4" s="52"/>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="26"/>
+      <c r="K4" s="15"/>
     </row>
     <row r="5" spans="1:11" ht="15.6">
       <c r="A5" s="4"/>
@@ -3169,481 +3151,524 @@
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61" t="s">
+      <c r="C6" s="63"/>
+      <c r="D6" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="59" t="s">
+      <c r="E6" s="65"/>
+      <c r="F6" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="59" t="s">
+      <c r="G6" s="66"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="63"/>
-      <c r="K6" s="60"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="63"/>
     </row>
     <row r="7" spans="1:11" ht="28.8" customHeight="1">
       <c r="A7" s="11">
         <v>1</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="17" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="14" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="21"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="48" customHeight="1">
       <c r="A8" s="10">
         <v>2</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="23" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="58"/>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="14" t="s">
+      <c r="E8" s="23"/>
+      <c r="F8" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="21"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="48" customHeight="1">
       <c r="A9" s="10">
         <v>3</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="58"/>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="14" t="s">
+      <c r="E9" s="23"/>
+      <c r="F9" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="21"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="66" customHeight="1">
       <c r="A10" s="10">
         <v>4</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="23" t="s">
         <v>147</v>
       </c>
       <c r="C10" s="58"/>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="14" t="s">
+      <c r="E10" s="23"/>
+      <c r="F10" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="21"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" ht="64.2" customHeight="1">
       <c r="A11" s="10">
         <v>5</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="23" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="58"/>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="14" t="s">
+      <c r="E11" s="23"/>
+      <c r="F11" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="21"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" s="19"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:11" ht="48.6" customHeight="1">
       <c r="A12" s="10">
         <v>6</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="58"/>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="14" t="s">
+      <c r="E12" s="23"/>
+      <c r="F12" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="21"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:11" ht="64.8" customHeight="1">
       <c r="A13" s="10">
         <v>7</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="23" t="s">
         <v>147</v>
       </c>
       <c r="C13" s="58"/>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="14" t="s">
+      <c r="E13" s="23"/>
+      <c r="F13" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J13" s="20"/>
-      <c r="K13" s="21"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="69" customHeight="1">
       <c r="A14" s="10">
         <v>8</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="23" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="58"/>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="14" t="s">
+      <c r="E14" s="23"/>
+      <c r="F14" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="21"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14" s="19"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="52.8" customHeight="1">
       <c r="A15" s="10">
         <v>9</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="58"/>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="14" t="s">
+      <c r="E15" s="23"/>
+      <c r="F15" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J15" s="20"/>
-      <c r="K15" s="21"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="65.400000000000006" customHeight="1">
       <c r="A16" s="10">
         <v>10</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="23" t="s">
         <v>147</v>
       </c>
       <c r="C16" s="58"/>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="14" t="s">
+      <c r="E16" s="23"/>
+      <c r="F16" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J16" s="20"/>
-      <c r="K16" s="21"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" spans="1:11" ht="83.4" customHeight="1">
       <c r="A17" s="10">
         <v>11</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="23" t="s">
         <v>151</v>
       </c>
       <c r="C17" s="58"/>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="14" t="s">
+      <c r="E17" s="23"/>
+      <c r="F17" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="21"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J17" s="19"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:11" ht="56.4" customHeight="1">
       <c r="A18" s="10">
         <v>12</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="58"/>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="14" t="s">
+      <c r="E18" s="23"/>
+      <c r="F18" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J18" s="20"/>
-      <c r="K18" s="21"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J18" s="19"/>
+      <c r="K18" s="20"/>
     </row>
     <row r="19" spans="1:11" ht="67.2" customHeight="1">
       <c r="A19" s="10">
         <v>13</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="23" t="s">
         <v>147</v>
       </c>
       <c r="C19" s="58"/>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="14" t="s">
+      <c r="E19" s="23"/>
+      <c r="F19" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J19" s="20"/>
-      <c r="K19" s="21"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J19" s="19"/>
+      <c r="K19" s="20"/>
     </row>
     <row r="20" spans="1:11" ht="70.2" customHeight="1">
       <c r="A20" s="10">
         <v>14</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="23" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="58"/>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="14" t="s">
+      <c r="E20" s="23"/>
+      <c r="F20" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J20" s="20"/>
-      <c r="K20" s="21"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J20" s="19"/>
+      <c r="K20" s="20"/>
     </row>
     <row r="21" spans="1:11" ht="55.8" customHeight="1">
       <c r="A21" s="10">
         <v>15</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="58"/>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="14" t="s">
+      <c r="E21" s="23"/>
+      <c r="F21" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J21" s="20"/>
-      <c r="K21" s="21"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J21" s="19"/>
+      <c r="K21" s="20"/>
     </row>
     <row r="22" spans="1:11" ht="75.599999999999994" customHeight="1">
       <c r="A22" s="10">
         <v>16</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="23" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="58"/>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="14" t="s">
+      <c r="E22" s="23"/>
+      <c r="F22" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J22" s="20"/>
-      <c r="K22" s="21"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J22" s="19"/>
+      <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:11" ht="85.2" customHeight="1">
       <c r="A23" s="10">
         <v>17</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="23" t="s">
         <v>43</v>
       </c>
       <c r="C23" s="58"/>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="14" t="s">
+      <c r="E23" s="23"/>
+      <c r="F23" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J23" s="20"/>
-      <c r="K23" s="21"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J23" s="19"/>
+      <c r="K23" s="20"/>
     </row>
     <row r="24" spans="1:11" ht="72.599999999999994" customHeight="1">
       <c r="A24" s="10">
         <v>18</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="58"/>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="14" t="s">
+      <c r="E24" s="23"/>
+      <c r="F24" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J24" s="20"/>
-      <c r="K24" s="21"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J24" s="19"/>
+      <c r="K24" s="20"/>
     </row>
     <row r="25" spans="1:11" ht="70.8" customHeight="1">
       <c r="A25" s="10">
         <v>19</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="23" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="58"/>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="14" t="s">
+      <c r="E25" s="23"/>
+      <c r="F25" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J25" s="20"/>
-      <c r="K25" s="21"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J25" s="19"/>
+      <c r="K25" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:H10"/>
@@ -3656,66 +3681,23 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="I9:K9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="F2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -3751,14 +3733,14 @@
         <v>0</v>
       </c>
       <c r="E1" s="49"/>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:11" ht="16.05" customHeight="1">
       <c r="A2" s="13"/>
@@ -3766,14 +3748,14 @@
       <c r="C2" s="12"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="66"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="61"/>
     </row>
     <row r="3" spans="1:11" ht="16.05" customHeight="1">
       <c r="A3" s="13"/>
@@ -3781,14 +3763,14 @@
       <c r="C3" s="12"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
-      <c r="F3" s="64" t="s">
+      <c r="F3" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="66"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="61"/>
     </row>
     <row r="4" spans="1:11" ht="15.6">
       <c r="A4" s="5"/>
@@ -3823,10 +3805,10 @@
         <v>9</v>
       </c>
       <c r="I5" s="52"/>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="26"/>
+      <c r="K5" s="15"/>
     </row>
     <row r="6" spans="1:11" ht="15.6">
       <c r="A6" s="4"/>
@@ -3845,319 +3827,357 @@
       <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="61" t="s">
+      <c r="C7" s="63"/>
+      <c r="D7" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="59" t="s">
+      <c r="E7" s="65"/>
+      <c r="F7" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="59" t="s">
+      <c r="G7" s="66"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="63"/>
-      <c r="K7" s="60"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="63"/>
     </row>
     <row r="8" spans="1:11" ht="64.05" customHeight="1">
       <c r="A8" s="11">
         <v>1</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="17" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="14" t="s">
+      <c r="E8" s="23"/>
+      <c r="F8" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="21"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="76.8" customHeight="1">
       <c r="A9" s="10">
         <v>2</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="23" t="s">
         <v>123</v>
       </c>
       <c r="C9" s="58"/>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="14" t="s">
+      <c r="E9" s="23"/>
+      <c r="F9" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="21"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="72" customHeight="1">
       <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="23" t="s">
         <v>124</v>
       </c>
       <c r="C10" s="58"/>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="14" t="s">
+      <c r="E10" s="23"/>
+      <c r="F10" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="21"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" ht="99" customHeight="1">
       <c r="A11" s="10">
         <v>4</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="23" t="s">
         <v>126</v>
       </c>
       <c r="C11" s="58"/>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="14" t="s">
+      <c r="E11" s="23"/>
+      <c r="F11" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="21"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" s="19"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:11" ht="18" customHeight="1">
       <c r="A12" s="10"/>
-      <c r="B12" s="17"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="58"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="32"/>
     </row>
     <row r="13" spans="1:11" ht="13.8" customHeight="1">
       <c r="A13" s="10"/>
-      <c r="B13" s="17"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="58"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="16"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="32"/>
     </row>
     <row r="14" spans="1:11" ht="16.2" customHeight="1">
       <c r="A14" s="10"/>
-      <c r="B14" s="17"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="58"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="16"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="32"/>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">
       <c r="A15" s="10"/>
-      <c r="B15" s="17"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="58"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="16"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="32"/>
     </row>
     <row r="16" spans="1:11" ht="16.8" customHeight="1">
       <c r="A16" s="10"/>
-      <c r="B16" s="17"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="58"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="16"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="32"/>
     </row>
     <row r="17" spans="1:11" ht="18" customHeight="1">
       <c r="A17" s="10"/>
-      <c r="B17" s="17"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="58"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="16"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="32"/>
     </row>
     <row r="18" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A18" s="10"/>
-      <c r="B18" s="17"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="58"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="32"/>
     </row>
     <row r="19" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A19" s="10"/>
-      <c r="B19" s="17"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="58"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="32"/>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1">
       <c r="A20" s="10"/>
-      <c r="B20" s="17"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="58"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="32"/>
     </row>
     <row r="21" spans="1:11" ht="16.8" customHeight="1">
       <c r="A21" s="10"/>
-      <c r="B21" s="17"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="58"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="32"/>
     </row>
     <row r="22" spans="1:11" ht="19.2" customHeight="1">
       <c r="A22" s="10"/>
-      <c r="B22" s="17"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="58"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="16"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="32"/>
     </row>
     <row r="23" spans="1:11" ht="20.399999999999999" customHeight="1">
       <c r="A23" s="10"/>
-      <c r="B23" s="17"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="58"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="16"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="32"/>
     </row>
     <row r="24" spans="1:11" ht="19.2" customHeight="1">
       <c r="A24" s="10"/>
-      <c r="B24" s="17"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="58"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="16"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="32"/>
     </row>
     <row r="25" spans="1:11" ht="20.399999999999999" customHeight="1">
       <c r="A25" s="10"/>
-      <c r="B25" s="17"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="58"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="16"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:H11"/>
@@ -4170,62 +4190,24 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="I10:K10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="F3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -4261,14 +4243,14 @@
         <v>0</v>
       </c>
       <c r="E1" s="49"/>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:11" ht="15.6">
       <c r="A2" s="5"/>
@@ -4303,10 +4285,10 @@
         <v>9</v>
       </c>
       <c r="I3" s="52"/>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="26"/>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" spans="1:11" ht="15.6">
       <c r="A4" s="4"/>
@@ -4325,324 +4307,404 @@
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61" t="s">
+      <c r="C5" s="63"/>
+      <c r="D5" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="59" t="s">
+      <c r="E5" s="65"/>
+      <c r="F5" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="63"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="59" t="s">
+      <c r="G5" s="66"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="63"/>
-      <c r="K5" s="60"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="63"/>
     </row>
     <row r="6" spans="1:11" ht="49.8" customHeight="1">
       <c r="A6" s="11">
         <v>1</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="17" t="s">
+      <c r="C6" s="24"/>
+      <c r="D6" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="14" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="21"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="48" customHeight="1">
       <c r="A7" s="10">
         <v>2</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="23" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="58"/>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="14" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="21"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="48" customHeight="1">
       <c r="A8" s="10">
         <v>3</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="23" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="58"/>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="14" t="s">
+      <c r="E8" s="23"/>
+      <c r="F8" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="21"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="49.2" customHeight="1">
       <c r="A9" s="10">
         <v>4</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C9" s="58"/>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="14" t="s">
+      <c r="E9" s="23"/>
+      <c r="F9" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="21"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="49.2" customHeight="1">
       <c r="A10" s="10">
         <v>5</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="23" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="58"/>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="14" t="s">
+      <c r="E10" s="23"/>
+      <c r="F10" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="21"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1">
       <c r="A11" s="10"/>
-      <c r="B11" s="17"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="58"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="32"/>
     </row>
     <row r="12" spans="1:11" ht="13.8" customHeight="1">
       <c r="A12" s="10"/>
-      <c r="B12" s="17"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="58"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="32"/>
     </row>
     <row r="13" spans="1:11" ht="16.2" customHeight="1">
       <c r="A13" s="10"/>
-      <c r="B13" s="17"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="58"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="16"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="32"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="10"/>
-      <c r="B14" s="17"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="58"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="16"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="32"/>
     </row>
     <row r="15" spans="1:11" ht="16.8" customHeight="1">
       <c r="A15" s="10"/>
-      <c r="B15" s="17"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="58"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="16"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="32"/>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1">
       <c r="A16" s="10"/>
-      <c r="B16" s="17"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="58"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="16"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="32"/>
     </row>
     <row r="17" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A17" s="10"/>
-      <c r="B17" s="17"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="58"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="16"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="32"/>
     </row>
     <row r="18" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A18" s="10"/>
-      <c r="B18" s="17"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="58"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="32"/>
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1">
       <c r="A19" s="10"/>
-      <c r="B19" s="17"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="58"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="32"/>
     </row>
     <row r="20" spans="1:11" ht="16.8" customHeight="1">
       <c r="A20" s="10"/>
-      <c r="B20" s="17"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="58"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="32"/>
     </row>
     <row r="21" spans="1:11" ht="19.2" customHeight="1">
       <c r="A21" s="10"/>
-      <c r="B21" s="17"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="58"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="32"/>
     </row>
     <row r="22" spans="1:11" ht="20.399999999999999" customHeight="1">
       <c r="A22" s="10"/>
-      <c r="B22" s="17"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="58"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="16"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="32"/>
     </row>
     <row r="23" spans="1:11" ht="19.2" customHeight="1">
       <c r="A23" s="10"/>
-      <c r="B23" s="17"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="58"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="16"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="32"/>
     </row>
     <row r="24" spans="1:11" ht="20.399999999999999" customHeight="1">
       <c r="A24" s="10"/>
-      <c r="B24" s="17"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="58"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="16"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:K1"/>
@@ -4651,50 +4713,716 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:K15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;11&amp;K000000 OFFICIAL</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741C5D56-BAB0-45C0-B338-97C15F5F3F4A}">
+  <dimension ref="A1:K34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27:H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" customWidth="1"/>
+    <col min="9" max="10" width="11.33203125" customWidth="1"/>
+    <col min="11" max="11" width="18.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A1" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="9">
+        <v>7</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="49"/>
+      <c r="F1" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="61"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="61"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="61"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="61"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="73"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="61"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="61"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="61"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.05" customHeight="1">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="61"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.6">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.6">
+      <c r="A12" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="52"/>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="52"/>
+      <c r="F12" s="54">
+        <v>45803</v>
+      </c>
+      <c r="G12" s="55"/>
+      <c r="H12" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="52"/>
+      <c r="J12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.6">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" ht="32.1" customHeight="1">
+      <c r="A14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="63"/>
+      <c r="D14" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="65"/>
+      <c r="F14" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="66"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="66"/>
+      <c r="K14" s="63"/>
+    </row>
+    <row r="15" spans="1:11" ht="52.2" customHeight="1">
+      <c r="A15" s="11">
+        <v>1</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" s="31"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" spans="1:11" ht="48" customHeight="1">
+      <c r="A16" s="10">
+        <v>2</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="58"/>
+      <c r="D16" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" s="31"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="1:11" ht="68.400000000000006" customHeight="1">
+      <c r="A17" s="10">
+        <v>3</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="58"/>
+      <c r="D17" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" s="31"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J17" s="19"/>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="1:11" ht="70.8" customHeight="1">
+      <c r="A18" s="10">
+        <v>4</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="58"/>
+      <c r="D18" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" s="31"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J18" s="19"/>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="1:11" ht="64.8" customHeight="1">
+      <c r="A19" s="10">
+        <v>5</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="58"/>
+      <c r="D19" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" s="31"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J19" s="19"/>
+      <c r="K19" s="20"/>
+    </row>
+    <row r="20" spans="1:11" ht="64.8" customHeight="1">
+      <c r="A20" s="10">
+        <v>6</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="58"/>
+      <c r="D20" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" s="31"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J20" s="19"/>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21" spans="1:11" ht="70.2" customHeight="1">
+      <c r="A21" s="10">
+        <v>7</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="58"/>
+      <c r="D21" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" s="31"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="J21" s="19"/>
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="1:11" ht="66" customHeight="1">
+      <c r="A22" s="10">
+        <v>8</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="58"/>
+      <c r="D22" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="G22" s="31"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="J22" s="19"/>
+      <c r="K22" s="20"/>
+    </row>
+    <row r="23" spans="1:11" ht="70.2" customHeight="1">
+      <c r="A23" s="10">
+        <v>9</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="58"/>
+      <c r="D23" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="F23" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="G23" s="31"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="J23" s="19"/>
+      <c r="K23" s="20"/>
+    </row>
+    <row r="24" spans="1:11" ht="82.2" customHeight="1">
+      <c r="A24" s="10">
+        <v>10</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="58"/>
+      <c r="D24" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24" s="31"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="J24" s="19"/>
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25" spans="1:11" ht="88.8" customHeight="1">
+      <c r="A25" s="10">
+        <v>11</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="58"/>
+      <c r="D25" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="23"/>
+      <c r="F25" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" s="31"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="J25" s="19"/>
+      <c r="K25" s="20"/>
+    </row>
+    <row r="26" spans="1:11" ht="76.2" customHeight="1">
+      <c r="A26" s="10">
+        <v>12</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="58"/>
+      <c r="D26" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="23"/>
+      <c r="F26" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="G26" s="31"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="J26" s="19"/>
+      <c r="K26" s="20"/>
+    </row>
+    <row r="27" spans="1:11" ht="76.2" customHeight="1">
+      <c r="A27" s="10">
+        <v>13</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="58"/>
+      <c r="D27" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="G27" s="31"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="J27" s="19"/>
+      <c r="K27" s="20"/>
+    </row>
+    <row r="28" spans="1:11" ht="74.400000000000006" customHeight="1">
+      <c r="A28" s="10">
+        <v>14</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="58"/>
+      <c r="D28" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="23"/>
+      <c r="F28" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="G28" s="31"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="J28" s="19"/>
+      <c r="K28" s="20"/>
+    </row>
+    <row r="29" spans="1:11" ht="18" customHeight="1">
+      <c r="A29" s="10"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="32"/>
+    </row>
+    <row r="30" spans="1:11" ht="16.8" customHeight="1">
+      <c r="A30" s="10"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="32"/>
+    </row>
+    <row r="31" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A31" s="10"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="32"/>
+    </row>
+    <row r="32" spans="1:11" ht="20.399999999999999" customHeight="1">
+      <c r="A32" s="10"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="32"/>
+    </row>
+    <row r="33" spans="1:11" ht="19.2" customHeight="1">
+      <c r="A33" s="10"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="32"/>
+    </row>
+    <row r="34" spans="1:11" ht="20.399999999999999" customHeight="1">
+      <c r="A34" s="10"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="98">
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:H16"/>
@@ -4711,684 +5439,6 @@
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;11&amp;K000000 OFFICIAL</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741C5D56-BAB0-45C0-B338-97C15F5F3F4A}">
-  <dimension ref="A1:K34"/>
-  <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28:H28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="13.2"/>
-  <cols>
-    <col min="5" max="5" width="13.21875" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" customWidth="1"/>
-    <col min="9" max="10" width="11.33203125" customWidth="1"/>
-    <col min="11" max="11" width="18.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="16.05" customHeight="1">
-      <c r="A1" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="9">
-        <v>7</v>
-      </c>
-      <c r="D1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-    </row>
-    <row r="2" spans="1:11" ht="16.05" customHeight="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="64" t="s">
-        <v>87</v>
-      </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="66"/>
-    </row>
-    <row r="3" spans="1:11" ht="16.05" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="66"/>
-    </row>
-    <row r="4" spans="1:11" ht="16.05" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="64" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="66"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.05" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="66"/>
-    </row>
-    <row r="6" spans="1:11" ht="16.05" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="72" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="74"/>
-    </row>
-    <row r="7" spans="1:11" ht="16.05" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="66"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.05" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="66"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.05" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="66"/>
-    </row>
-    <row r="10" spans="1:11" ht="16.05" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="66"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.6">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.6">
-      <c r="A12" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="54">
-        <v>45803</v>
-      </c>
-      <c r="G12" s="55"/>
-      <c r="H12" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="52"/>
-      <c r="J12" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="26"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.6">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A14" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="62"/>
-      <c r="F14" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="63"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="63"/>
-      <c r="K14" s="60"/>
-    </row>
-    <row r="15" spans="1:11" ht="52.2" customHeight="1">
-      <c r="A15" s="11">
-        <v>1</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J15" s="20"/>
-      <c r="K15" s="21"/>
-    </row>
-    <row r="16" spans="1:11" ht="48" customHeight="1">
-      <c r="A16" s="10">
-        <v>2</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J16" s="20"/>
-      <c r="K16" s="21"/>
-    </row>
-    <row r="17" spans="1:11" ht="68.400000000000006" customHeight="1">
-      <c r="A17" s="10">
-        <v>3</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="21"/>
-    </row>
-    <row r="18" spans="1:11" ht="70.8" customHeight="1">
-      <c r="A18" s="10">
-        <v>4</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J18" s="20"/>
-      <c r="K18" s="21"/>
-    </row>
-    <row r="19" spans="1:11" ht="64.8" customHeight="1">
-      <c r="A19" s="10">
-        <v>5</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J19" s="20"/>
-      <c r="K19" s="21"/>
-    </row>
-    <row r="20" spans="1:11" ht="64.8" customHeight="1">
-      <c r="A20" s="10">
-        <v>6</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J20" s="20"/>
-      <c r="K20" s="21"/>
-    </row>
-    <row r="21" spans="1:11" ht="70.2" customHeight="1">
-      <c r="A21" s="10">
-        <v>7</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="J21" s="20"/>
-      <c r="K21" s="21"/>
-    </row>
-    <row r="22" spans="1:11" ht="66" customHeight="1">
-      <c r="A22" s="10">
-        <v>8</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="J22" s="20"/>
-      <c r="K22" s="21"/>
-    </row>
-    <row r="23" spans="1:11" ht="70.2" customHeight="1">
-      <c r="A23" s="10">
-        <v>9</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="J23" s="20"/>
-      <c r="K23" s="21"/>
-    </row>
-    <row r="24" spans="1:11" ht="82.2" customHeight="1">
-      <c r="A24" s="10">
-        <v>10</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="58"/>
-      <c r="D24" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="79" t="s">
-        <v>173</v>
-      </c>
-      <c r="G24" s="80"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="J24" s="70"/>
-      <c r="K24" s="71"/>
-    </row>
-    <row r="25" spans="1:11" ht="88.8" customHeight="1">
-      <c r="A25" s="10">
-        <v>11</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="C25" s="58"/>
-      <c r="D25" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="J25" s="20"/>
-      <c r="K25" s="21"/>
-    </row>
-    <row r="26" spans="1:11" ht="76.2" customHeight="1">
-      <c r="A26" s="10">
-        <v>12</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="58"/>
-      <c r="D26" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="J26" s="20"/>
-      <c r="K26" s="21"/>
-    </row>
-    <row r="27" spans="1:11" ht="76.2" customHeight="1">
-      <c r="A27" s="10">
-        <v>13</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="67" t="s">
-        <v>173</v>
-      </c>
-      <c r="G27" s="68"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="J27" s="70"/>
-      <c r="K27" s="71"/>
-    </row>
-    <row r="28" spans="1:11" ht="74.400000000000006" customHeight="1">
-      <c r="A28" s="10">
-        <v>14</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="J28" s="20"/>
-      <c r="K28" s="21"/>
-    </row>
-    <row r="29" spans="1:11" ht="18" customHeight="1">
-      <c r="A29" s="10"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="16"/>
-    </row>
-    <row r="30" spans="1:11" ht="16.8" customHeight="1">
-      <c r="A30" s="10"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="16"/>
-    </row>
-    <row r="31" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A31" s="10"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="16"/>
-    </row>
-    <row r="32" spans="1:11" ht="20.399999999999999" customHeight="1">
-      <c r="A32" s="10"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="16"/>
-    </row>
-    <row r="33" spans="1:11" ht="19.2" customHeight="1">
-      <c r="A33" s="10"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="16"/>
-    </row>
-    <row r="34" spans="1:11" ht="20.399999999999999" customHeight="1">
-      <c r="A34" s="10"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="98">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:K15"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:K1"/>
@@ -5398,87 +5448,19 @@
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="F2:K2"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:K27"/>
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="F5:K5"/>
     <mergeCell ref="F7:K10"/>
     <mergeCell ref="F4:K4"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:K15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -5491,8 +5473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BCD376-509A-4956-8522-344EDD1B81AA}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25:K25"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31:K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="13.2"/>
@@ -5515,14 +5497,14 @@
         <v>0</v>
       </c>
       <c r="E1" s="49"/>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:11" ht="16.05" customHeight="1">
       <c r="A2" s="13"/>
@@ -5530,14 +5512,14 @@
       <c r="C2" s="12"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="74"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="73"/>
     </row>
     <row r="3" spans="1:11" ht="16.05" customHeight="1">
       <c r="A3" s="13"/>
@@ -5545,14 +5527,14 @@
       <c r="C3" s="12"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
-      <c r="F3" s="64" t="s">
+      <c r="F3" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="66"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="61"/>
     </row>
     <row r="4" spans="1:11" ht="16.05" customHeight="1">
       <c r="A4" s="13"/>
@@ -5560,14 +5542,14 @@
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="66"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="61"/>
     </row>
     <row r="5" spans="1:11" ht="16.05" customHeight="1">
       <c r="A5" s="13"/>
@@ -5575,14 +5557,14 @@
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="66"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="61"/>
     </row>
     <row r="6" spans="1:11" ht="16.05" customHeight="1">
       <c r="A6" s="13"/>
@@ -5590,14 +5572,14 @@
       <c r="C6" s="12"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="72" t="s">
+      <c r="F6" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="74"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="1:11" ht="16.05" customHeight="1">
       <c r="A7" s="13"/>
@@ -5605,14 +5587,14 @@
       <c r="C7" s="12"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="66"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="61"/>
     </row>
     <row r="8" spans="1:11" ht="16.05" customHeight="1">
       <c r="A8" s="13"/>
@@ -5620,14 +5602,14 @@
       <c r="C8" s="12"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="74"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="1:11" ht="16.05" customHeight="1">
       <c r="A9" s="13"/>
@@ -5635,14 +5617,14 @@
       <c r="C9" s="12"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="66"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="61"/>
     </row>
     <row r="10" spans="1:11" ht="16.05" customHeight="1">
       <c r="A10" s="13"/>
@@ -5650,12 +5632,12 @@
       <c r="C10" s="12"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="66"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="61"/>
     </row>
     <row r="11" spans="1:11" ht="16.05" customHeight="1">
       <c r="A11" s="13"/>
@@ -5663,12 +5645,12 @@
       <c r="C11" s="12"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="66"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="61"/>
     </row>
     <row r="12" spans="1:11" ht="16.05" customHeight="1">
       <c r="A12" s="13"/>
@@ -5676,12 +5658,12 @@
       <c r="C12" s="12"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="66"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="61"/>
     </row>
     <row r="13" spans="1:11" ht="15.6">
       <c r="A13" s="5"/>
@@ -5716,10 +5698,10 @@
         <v>9</v>
       </c>
       <c r="I14" s="52"/>
-      <c r="J14" s="25" t="s">
+      <c r="J14" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="26"/>
+      <c r="K14" s="15"/>
     </row>
     <row r="15" spans="1:11" ht="15.6">
       <c r="A15" s="4"/>
@@ -5738,650 +5720,573 @@
       <c r="A16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="61" t="s">
+      <c r="C16" s="63"/>
+      <c r="D16" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="62"/>
-      <c r="F16" s="59" t="s">
+      <c r="E16" s="65"/>
+      <c r="F16" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="63"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="59" t="s">
+      <c r="G16" s="66"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="63"/>
-      <c r="K16" s="60"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="63"/>
     </row>
     <row r="17" spans="1:11" ht="64.05" customHeight="1">
       <c r="A17" s="11">
         <v>1</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="17" t="s">
+      <c r="C17" s="24"/>
+      <c r="D17" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="21"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G17" s="31"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="J17" s="19"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:11" ht="66" customHeight="1">
       <c r="A18" s="10">
         <v>2</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="23" t="s">
         <v>71</v>
       </c>
       <c r="C18" s="58"/>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J18" s="20"/>
-      <c r="K18" s="21"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" s="31"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J18" s="19"/>
+      <c r="K18" s="20"/>
     </row>
     <row r="19" spans="1:11" ht="82.8" customHeight="1">
       <c r="A19" s="10">
         <v>3</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="23" t="s">
         <v>74</v>
       </c>
       <c r="C19" s="58"/>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J19" s="20"/>
-      <c r="K19" s="21"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="G19" s="31"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J19" s="19"/>
+      <c r="K19" s="20"/>
     </row>
     <row r="20" spans="1:11" ht="91.2" customHeight="1">
       <c r="A20" s="10">
         <v>4</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="23" t="s">
         <v>75</v>
       </c>
       <c r="C20" s="58"/>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J20" s="20"/>
-      <c r="K20" s="21"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="G20" s="31"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J20" s="19"/>
+      <c r="K20" s="20"/>
     </row>
     <row r="21" spans="1:11" ht="96" customHeight="1">
       <c r="A21" s="10">
         <v>5</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="23" t="s">
         <v>97</v>
       </c>
       <c r="C21" s="58"/>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J21" s="20"/>
-      <c r="K21" s="21"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" s="31"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J21" s="19"/>
+      <c r="K21" s="20"/>
     </row>
     <row r="22" spans="1:11" ht="82.2" customHeight="1">
       <c r="A22" s="10">
         <v>6</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="23" t="s">
         <v>76</v>
       </c>
       <c r="C22" s="58"/>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J22" s="20"/>
-      <c r="K22" s="21"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" s="31"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J22" s="19"/>
+      <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:11" ht="84" customHeight="1">
       <c r="A23" s="10">
         <v>7</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="23" t="s">
         <v>77</v>
       </c>
       <c r="C23" s="58"/>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J23" s="20"/>
-      <c r="K23" s="21"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" s="31"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J23" s="19"/>
+      <c r="K23" s="20"/>
     </row>
     <row r="24" spans="1:11" ht="84.6" customHeight="1">
       <c r="A24" s="10">
         <v>8</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="23" t="s">
         <v>78</v>
       </c>
       <c r="C24" s="58"/>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J24" s="20"/>
-      <c r="K24" s="21"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="G24" s="31"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J24" s="19"/>
+      <c r="K24" s="20"/>
     </row>
     <row r="25" spans="1:11" ht="111.6" customHeight="1">
       <c r="A25" s="10">
         <v>9</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="23" t="s">
         <v>79</v>
       </c>
       <c r="C25" s="58"/>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J25" s="20"/>
-      <c r="K25" s="21"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="G25" s="31"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J25" s="19"/>
+      <c r="K25" s="20"/>
     </row>
     <row r="26" spans="1:11" ht="114" customHeight="1">
       <c r="A26" s="10">
         <v>10</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="23" t="s">
         <v>98</v>
       </c>
       <c r="C26" s="58"/>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J26" s="20"/>
-      <c r="K26" s="21"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="G26" s="31"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J26" s="19"/>
+      <c r="K26" s="20"/>
     </row>
     <row r="27" spans="1:11" ht="99.6" customHeight="1">
       <c r="A27" s="10">
         <v>11</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="23" t="s">
         <v>99</v>
       </c>
       <c r="C27" s="58"/>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J27" s="20"/>
-      <c r="K27" s="21"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G27" s="31"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J27" s="19"/>
+      <c r="K27" s="20"/>
     </row>
     <row r="28" spans="1:11" ht="102" customHeight="1">
       <c r="A28" s="10">
         <v>12</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="23" t="s">
         <v>100</v>
       </c>
       <c r="C28" s="58"/>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J28" s="20"/>
-      <c r="K28" s="21"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G28" s="31"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J28" s="19"/>
+      <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:11" ht="101.4" customHeight="1">
       <c r="A29" s="10">
         <v>13</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="23" t="s">
         <v>81</v>
       </c>
       <c r="C29" s="58"/>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J29" s="20"/>
-      <c r="K29" s="21"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="G29" s="31"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J29" s="19"/>
+      <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:11" ht="84" customHeight="1">
       <c r="A30" s="10">
         <v>14</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="23" t="s">
         <v>83</v>
       </c>
       <c r="C30" s="58"/>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="G30" s="15"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J30" s="20"/>
-      <c r="K30" s="21"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="G30" s="31"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J30" s="19"/>
+      <c r="K30" s="20"/>
     </row>
     <row r="31" spans="1:11" ht="82.2" customHeight="1">
       <c r="A31" s="10">
         <v>15</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="23" t="s">
         <v>82</v>
       </c>
       <c r="C31" s="58"/>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J31" s="20"/>
-      <c r="K31" s="21"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="G31" s="31"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J31" s="19"/>
+      <c r="K31" s="20"/>
     </row>
     <row r="32" spans="1:11" ht="82.2" customHeight="1">
       <c r="A32" s="10">
         <v>16</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="23" t="s">
         <v>101</v>
       </c>
       <c r="C32" s="58"/>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="67" t="s">
-        <v>182</v>
-      </c>
-      <c r="G32" s="68"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="J32" s="70"/>
-      <c r="K32" s="71"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="G32" s="31"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J32" s="19"/>
+      <c r="K32" s="20"/>
     </row>
     <row r="33" spans="1:11" ht="95.4" customHeight="1">
       <c r="A33" s="10">
         <v>17</v>
       </c>
-      <c r="B33" s="17" t="s">
-        <v>183</v>
+      <c r="B33" s="23" t="s">
+        <v>180</v>
       </c>
       <c r="C33" s="58"/>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="G33" s="15"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J33" s="20"/>
-      <c r="K33" s="21"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="G33" s="31"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J33" s="19"/>
+      <c r="K33" s="20"/>
     </row>
     <row r="34" spans="1:11" ht="82.8" customHeight="1">
       <c r="A34" s="10">
         <v>18</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="23" t="s">
         <v>102</v>
       </c>
       <c r="C34" s="58"/>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="G34" s="15"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J34" s="20"/>
-      <c r="K34" s="21"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="G34" s="31"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J34" s="19"/>
+      <c r="K34" s="20"/>
     </row>
     <row r="35" spans="1:11" ht="82.8" customHeight="1">
       <c r="A35" s="10">
         <v>19</v>
       </c>
-      <c r="B35" s="17" t="s">
-        <v>185</v>
+      <c r="B35" s="23" t="s">
+        <v>182</v>
       </c>
       <c r="C35" s="58"/>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="67" t="s">
-        <v>182</v>
-      </c>
-      <c r="G35" s="68"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="J35" s="70"/>
-      <c r="K35" s="71"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="G35" s="31"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J35" s="19"/>
+      <c r="K35" s="20"/>
     </row>
     <row r="36" spans="1:11" ht="96.6" customHeight="1">
       <c r="A36" s="10">
         <v>20</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="23" t="s">
         <v>104</v>
       </c>
       <c r="C36" s="58"/>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="G36" s="15"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="J36" s="20"/>
-      <c r="K36" s="21"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="G36" s="31"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="J36" s="19"/>
+      <c r="K36" s="20"/>
     </row>
     <row r="37" spans="1:11" ht="18" customHeight="1">
       <c r="A37" s="10"/>
-      <c r="B37" s="17"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="58"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="16"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="32"/>
     </row>
     <row r="38" spans="1:11" ht="16.8" customHeight="1">
       <c r="A38" s="10"/>
-      <c r="B38" s="17"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="58"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="16"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="32"/>
     </row>
     <row r="39" spans="1:11" ht="19.2" customHeight="1">
       <c r="A39" s="10"/>
-      <c r="B39" s="17"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="58"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="16"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="32"/>
     </row>
     <row r="40" spans="1:11" ht="20.399999999999999" customHeight="1">
       <c r="A40" s="10"/>
-      <c r="B40" s="17"/>
+      <c r="B40" s="23"/>
       <c r="C40" s="58"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="16"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="32"/>
     </row>
     <row r="41" spans="1:11" ht="19.2" customHeight="1">
       <c r="A41" s="10"/>
-      <c r="B41" s="17"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="58"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="16"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="32"/>
     </row>
     <row r="42" spans="1:11" ht="20.399999999999999" customHeight="1">
       <c r="A42" s="10"/>
-      <c r="B42" s="17"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="58"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="16"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="F9:K12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="F37:H37"/>
@@ -6401,26 +6306,103 @@
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="F35:H35"/>
     <mergeCell ref="I35:K35"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="F8:K8"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="F32:H32"/>
     <mergeCell ref="I32:K32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I21:K21"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="F9:K12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="F8:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
